--- a/output/flourish_municipios_200mil.xlsx
+++ b/output/flourish_municipios_200mil.xlsx
@@ -467,13 +467,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -481,22 +481,25 @@
         <v>0</v>
       </c>
       <c r="C1" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D1" s="1">
         <v>2004</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2008</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2012</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2016</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -504,22 +507,25 @@
         <v>27</v>
       </c>
       <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -527,22 +533,25 @@
         <v>28</v>
       </c>
       <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -550,22 +559,25 @@
         <v>27</v>
       </c>
       <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
         <v>21</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>30</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>23</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>28</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -585,10 +597,13 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -596,22 +611,25 @@
         <v>29</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,22 +637,25 @@
         <v>29</v>
       </c>
       <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>13</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -651,13 +672,16 @@
         <v>0</v>
       </c>
       <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -665,22 +689,25 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
       <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -697,13 +724,16 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -720,13 +750,16 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -740,16 +773,19 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -757,22 +793,25 @@
         <v>31</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
       <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -783,19 +822,22 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
         <v>4</v>
       </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -803,22 +845,25 @@
         <v>29</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
       <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
         <v>16</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>13</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,19 +874,22 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -855,16 +903,19 @@
         <v>0</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -872,22 +923,25 @@
         <v>27</v>
       </c>
       <c r="C18">
+        <v>26</v>
+      </c>
+      <c r="D18">
         <v>27</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>22</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>26</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>36</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -907,10 +961,13 @@
         <v>0</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -924,16 +981,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -941,22 +1001,25 @@
         <v>29</v>
       </c>
       <c r="C21">
+        <v>31</v>
+      </c>
+      <c r="D21">
         <v>34</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>37</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>27</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>5</v>
       </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -964,22 +1027,25 @@
         <v>31</v>
       </c>
       <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
         <v>6</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
       <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
         <v>5</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -993,16 +1059,19 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1010,22 +1079,25 @@
         <v>29</v>
       </c>
       <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
         <v>4</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1042,13 +1114,16 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1065,9 +1140,12 @@
         <v>0</v>
       </c>
       <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>3</v>
       </c>
     </row>

--- a/output/flourish_municipios_200mil.xlsx
+++ b/output/flourish_municipios_200mil.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>ideologia</t>
   </si>
@@ -97,19 +97,13 @@
     <t>SD</t>
   </si>
   <si>
-    <t>Centro Dem</t>
+    <t>Centro</t>
   </si>
   <si>
     <t>Direita</t>
   </si>
   <si>
     <t>Esquerda</t>
-  </si>
-  <si>
-    <t>Extinto</t>
-  </si>
-  <si>
-    <t>Centrao</t>
   </si>
 </sst>
 </file>
@@ -539,10 +533,10 @@
         <v>12</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>9</v>
@@ -568,7 +562,7 @@
         <v>30</v>
       </c>
       <c r="F4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -660,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -712,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -738,7 +732,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -790,7 +784,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -799,10 +793,10 @@
         <v>3</v>
       </c>
       <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
         <v>8</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -816,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -906,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G17">
         <v>8</v>
@@ -1024,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -1128,7 +1122,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>0</v>
